--- a/GoogleTest/gTest Samples Summary.xlsx
+++ b/GoogleTest/gTest Samples Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iakwon\Desktop\진행중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iakwon\Desktop\InProgress\Git_SelfDevelopment\GoogleTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A71036-FAF2-4CE8-87B0-2412E30FC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247A514-31E1-439E-BD59-EEA7F0F5914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4A2A0A2-B5FA-411E-9D52-B84BD4376C4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Sample1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,6 @@
   </si>
   <si>
     <t>. Count  증/감 함수 호출 후, 현재 기대값 검증하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. SetUp()에 사용할 변수는 맴버로 선언해줘야 하고, TearDown()에 사용할 변수는 지역으로 선언하는 이유?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1975,7 +1971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:7" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -2056,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2081,101 +2077,99 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" ht="132" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
